--- a/chapter5挖掘建模/example/聚类/tmp/output_data1.xlsx
+++ b/chapter5挖掘建模/example/聚类/tmp/output_data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="聚类类别" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="聚类中心" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="聚类类别" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="聚类中心" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -51,7 +51,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -67,6 +66,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,7 +467,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -414,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -428,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -442,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -456,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -470,7 +537,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -484,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -528,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -542,13 +609,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +623,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
